--- a/biology/Médecine/Réseau_Sentinelles/Réseau_Sentinelles.xlsx
+++ b/biology/Médecine/Réseau_Sentinelles/Réseau_Sentinelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_Sentinelles</t>
+          <t>Réseau_Sentinelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le réseau Sentinelles est un réseau de recherche et de veille sanitaire en soins de premiers recours (médecine générale et pédiatrie) en France métropolitaine. Créé en novembre 1984, il est développé sous la tutelle conjointe de l'Institut national de la santé et de la recherche médicale (Inserm) et de Sorbonne Université. 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_Sentinelles</t>
+          <t>Réseau_Sentinelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,10 +530,12 @@
           <t>Surveillance continue de dix indicateurs de santé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce système national de surveillance permet le recueil, l'analyse, la prévision et la redistribution en temps réel de données épidémiologiques issues de l'activité des médecins généralistes libéraux. Il s'intègre aux dispositifs de surveillance mis en place par Santé publique France (avis favorable de la CNIL no 471 393)[1].
-Neuf indicateurs infectieux sont recueillis[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce système national de surveillance permet le recueil, l'analyse, la prévision et la redistribution en temps réel de données épidémiologiques issues de l'activité des médecins généralistes libéraux. Il s'intègre aux dispositifs de surveillance mis en place par Santé publique France (avis favorable de la CNIL no 471 393).
+Neuf indicateurs infectieux sont recueillis :
 Syndromes grippaux, 1984
 Urétrite masculine, 1984
 Oreillons, 1985
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_Sentinelles</t>
+          <t>Réseau_Sentinelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,11 +578,13 @@
           <t>Recherche scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les données issues du réseau Sentinelles permettent d'élaborer :
-des modèles de détection et d'alerte basés sur la méthode dite du serpent de Serfling[2] ;
-des modèles de prévisions des épidémies à différentes échelles géographiques[3].</t>
+des modèles de détection et d'alerte basés sur la méthode dite du serpent de Serfling ;
+des modèles de prévisions des épidémies à différentes échelles géographiques.</t>
         </is>
       </c>
     </row>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_Sentinelles</t>
+          <t>Réseau_Sentinelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Épidémiologie de terrain</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des enquêtes épidémiologiques ponctuelles sont réalisées auprès des médecins Sentinelles. Elles sont effectuées dans le respect des bonnes pratiques d’épidémiologie éditées par l’Association des épidémiologistes de langue française (ADELF). Elles ont toutes un numéro d’ordre inscrit sur un protocole écrit et font l’objet d’un rapport final d’étude. Elles sont soumises aux procédures d’audit interne visant à assurer leur qualité et ont reçu un avis favorable de la CNIL (no 471 393). Les résultats de ces enquêtes sont mis en ligne sur le site du réseau dans la section « documentation/enquêtes ponctuelles ».
 </t>
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_Sentinelles</t>
+          <t>Réseau_Sentinelles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,12 +647,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atlantique
-Antilles-Guyane :
+          <t>Atlantique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antilles-Guyane :
 Le premier réseau de médecins généralistes sentinelles a été créé en Guadeloupe en 1983 suivi par ceux de la Martinique et de la Guyane.
-L’objectif de ces réseaux est la surveillance des pathologies considérées comme prioritaires notamment : la dengue, le chikungunya, le Zika, la grippe, la bronchiolite, la gastro-entérite aiguë, la varicelle et la conjonctivite[4],[5],[6].
-Océan Indien
-Pacifique</t>
+L’objectif de ces réseaux est la surveillance des pathologies considérées comme prioritaires notamment : la dengue, le chikungunya, le Zika, la grippe, la bronchiolite, la gastro-entérite aiguë, la varicelle et la conjonctivite.
+</t>
         </is>
       </c>
     </row>
